--- a/Experiment 222/Tabelle_3.xlsx
+++ b/Experiment 222/Tabelle_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ema\Desktop\PAP2.1\Data\Versuch 222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47887415-3964-423E-A6FC-6D9587457A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0FEFF9-A204-4E1A-9F2E-12067C5481EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{51BB0A54-D1FD-4214-8C34-CF46E07FD4AA}"/>
   </bookViews>
@@ -410,7 +410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E025AD-D01A-4C5E-9E9C-6EF6C249C9D2}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -445,12 +447,12 @@
         <v>240</v>
       </c>
       <c r="C2" s="1">
-        <f xml:space="preserve"> 2.62*5</f>
-        <v>13.100000000000001</v>
+        <f xml:space="preserve"> 2.62</f>
+        <v>2.62</v>
       </c>
       <c r="D2" s="1">
-        <f xml:space="preserve"> C2*0.008+0.03*5</f>
-        <v>0.25480000000000003</v>
+        <f xml:space="preserve"> C2*0.008+0.03</f>
+        <v>5.0960000000000005E-2</v>
       </c>
       <c r="E2" s="1">
         <v>11.8</v>
@@ -471,18 +473,18 @@
         <v>239.4</v>
       </c>
       <c r="C3" s="1">
-        <f xml:space="preserve"> 2.61*5</f>
-        <v>13.049999999999999</v>
+        <f xml:space="preserve"> 2.61</f>
+        <v>2.61</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D13" si="0" xml:space="preserve"> C3*0.008+0.03*5</f>
-        <v>0.25439999999999996</v>
+        <f xml:space="preserve"> C3*0.008+0.03</f>
+        <v>5.0879999999999995E-2</v>
       </c>
       <c r="E3" s="1">
         <v>11.8</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F13" si="1" xml:space="preserve"> E3*0.01+0.03</f>
+        <f t="shared" ref="F3:F13" si="0" xml:space="preserve"> E3*0.01+0.03</f>
         <v>0.14800000000000002</v>
       </c>
       <c r="G3">
@@ -497,18 +499,18 @@
         <v>280</v>
       </c>
       <c r="C4" s="1">
-        <f xml:space="preserve"> 2.62*5</f>
-        <v>13.100000000000001</v>
+        <f xml:space="preserve"> 2.62</f>
+        <v>2.62</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25480000000000003</v>
+        <f xml:space="preserve"> C4*0.008+0.03</f>
+        <v>5.0960000000000005E-2</v>
       </c>
       <c r="E4" s="1">
         <v>11.81</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14810000000000001</v>
       </c>
       <c r="G4">
@@ -523,18 +525,18 @@
         <v>273.89999999999998</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C7" si="2" xml:space="preserve"> 2.62*5</f>
-        <v>13.100000000000001</v>
+        <f xml:space="preserve"> 2.62</f>
+        <v>2.62</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25480000000000003</v>
+        <f xml:space="preserve"> C5*0.008+0.03</f>
+        <v>5.0960000000000005E-2</v>
       </c>
       <c r="E5" s="1">
         <v>11.8</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14800000000000002</v>
       </c>
       <c r="G5">
@@ -549,18 +551,18 @@
         <v>273.3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>13.100000000000001</v>
+        <f xml:space="preserve"> 2.62</f>
+        <v>2.62</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25480000000000003</v>
+        <f xml:space="preserve"> C6*0.008+0.03</f>
+        <v>5.0960000000000005E-2</v>
       </c>
       <c r="E6" s="1">
         <v>11.8</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14800000000000002</v>
       </c>
       <c r="G6">
@@ -575,18 +577,18 @@
         <v>263.8</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>13.100000000000001</v>
+        <f xml:space="preserve"> 2.62</f>
+        <v>2.62</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25480000000000003</v>
+        <f xml:space="preserve"> C7*0.008+0.03</f>
+        <v>5.0960000000000005E-2</v>
       </c>
       <c r="E7" s="1">
         <v>11.79</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14789999999999998</v>
       </c>
       <c r="G7">
@@ -601,18 +603,18 @@
         <v>314.5</v>
       </c>
       <c r="C8" s="1">
-        <f xml:space="preserve"> 2.61*5</f>
-        <v>13.049999999999999</v>
+        <f xml:space="preserve"> 2.61</f>
+        <v>2.61</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25439999999999996</v>
+        <f xml:space="preserve"> C8*0.008+0.03</f>
+        <v>5.0879999999999995E-2</v>
       </c>
       <c r="E8" s="1">
         <v>11.8</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14800000000000002</v>
       </c>
       <c r="G8">
@@ -627,18 +629,18 @@
         <v>315.39999999999998</v>
       </c>
       <c r="C9" s="1">
-        <f xml:space="preserve"> 2.62*5</f>
-        <v>13.100000000000001</v>
+        <f xml:space="preserve"> 2.62</f>
+        <v>2.62</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25480000000000003</v>
+        <f xml:space="preserve"> C9*0.008+0.03</f>
+        <v>5.0960000000000005E-2</v>
       </c>
       <c r="E9" s="1">
         <v>11.79</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14789999999999998</v>
       </c>
       <c r="G9">
@@ -653,18 +655,18 @@
         <v>316.5</v>
       </c>
       <c r="C10" s="1">
-        <f xml:space="preserve"> 2.61*5</f>
-        <v>13.049999999999999</v>
+        <f xml:space="preserve"> 2.61</f>
+        <v>2.61</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25439999999999996</v>
+        <f xml:space="preserve"> C10*0.008+0.03</f>
+        <v>5.0879999999999995E-2</v>
       </c>
       <c r="E10" s="1">
         <v>11.79</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14789999999999998</v>
       </c>
       <c r="G10">
@@ -679,18 +681,18 @@
         <v>338.1</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C13" si="3" xml:space="preserve"> 2.61*5</f>
-        <v>13.049999999999999</v>
+        <f xml:space="preserve"> 2.61</f>
+        <v>2.61</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25439999999999996</v>
+        <f xml:space="preserve"> C11*0.008+0.03</f>
+        <v>5.0879999999999995E-2</v>
       </c>
       <c r="E11" s="1">
         <v>11.78</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14779999999999999</v>
       </c>
       <c r="G11">
@@ -705,18 +707,18 @@
         <v>337.9</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
-        <v>13.049999999999999</v>
+        <f xml:space="preserve"> 2.61</f>
+        <v>2.61</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25439999999999996</v>
+        <f xml:space="preserve"> C12*0.008+0.03</f>
+        <v>5.0879999999999995E-2</v>
       </c>
       <c r="E12" s="1">
         <v>11.78</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14779999999999999</v>
       </c>
       <c r="G12">
@@ -731,18 +733,18 @@
         <v>337.2</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="3"/>
-        <v>13.049999999999999</v>
+        <f xml:space="preserve"> 2.61</f>
+        <v>2.61</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25439999999999996</v>
+        <f xml:space="preserve"> C13*0.008+0.03</f>
+        <v>5.0879999999999995E-2</v>
       </c>
       <c r="E13" s="1">
         <v>11.77</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1477</v>
       </c>
       <c r="G13">
